--- a/natmiOut/OldD0/LR-pairs_lrc2p/Artn-Gfra1.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Artn-Gfra1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t>Gfra1</t>
+  </si>
+  <si>
+    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -443,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,55 +525,55 @@
         <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.01915999871959</v>
+        <v>2.089056333333333</v>
       </c>
       <c r="H2">
-        <v>2.01915999871959</v>
+        <v>6.267169</v>
       </c>
       <c r="I2">
-        <v>0.725354599622266</v>
+        <v>0.7196603919224289</v>
       </c>
       <c r="J2">
-        <v>0.725354599622266</v>
+        <v>0.719660391922429</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>25.883487862168</v>
+        <v>0.06547366666666667</v>
       </c>
       <c r="N2">
-        <v>25.883487862168</v>
+        <v>0.196421</v>
       </c>
       <c r="O2">
-        <v>0.8449145235622756</v>
+        <v>0.002125877360986814</v>
       </c>
       <c r="P2">
-        <v>0.8449145235622756</v>
+        <v>0.002125877360986814</v>
       </c>
       <c r="Q2">
-        <v>52.26290331863365</v>
+        <v>0.1367781780165555</v>
       </c>
       <c r="R2">
-        <v>52.26290331863365</v>
+        <v>1.231003602149</v>
       </c>
       <c r="S2">
-        <v>0.6128626359535521</v>
+        <v>0.00152990973478679</v>
       </c>
       <c r="T2">
-        <v>0.6128626359535521</v>
+        <v>0.00152990973478679</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,60 +587,60 @@
         <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.01915999871959</v>
+        <v>2.089056333333333</v>
       </c>
       <c r="H3">
-        <v>2.01915999871959</v>
+        <v>6.267169</v>
       </c>
       <c r="I3">
-        <v>0.725354599622266</v>
+        <v>0.7196603919224289</v>
       </c>
       <c r="J3">
-        <v>0.725354599622266</v>
+        <v>0.719660391922429</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.75095756438197</v>
+        <v>25.94643066666667</v>
       </c>
       <c r="N3">
-        <v>4.75095756438197</v>
+        <v>77.839292</v>
       </c>
       <c r="O3">
-        <v>0.1550854764377244</v>
+        <v>0.8424597607080814</v>
       </c>
       <c r="P3">
-        <v>0.1550854764377244</v>
+        <v>0.8424597607080814</v>
       </c>
       <c r="Q3">
-        <v>9.592943469614324</v>
+        <v>54.20355531159422</v>
       </c>
       <c r="R3">
-        <v>9.592943469614324</v>
+        <v>487.831997804348</v>
       </c>
       <c r="S3">
-        <v>0.112491963668714</v>
+        <v>0.6062849215700535</v>
       </c>
       <c r="T3">
-        <v>0.112491963668714</v>
+        <v>0.6062849215700536</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>22</v>
@@ -646,55 +649,55 @@
         <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.764526766031172</v>
+        <v>2.089056333333333</v>
       </c>
       <c r="H4">
-        <v>0.764526766031172</v>
+        <v>6.267169</v>
       </c>
       <c r="I4">
-        <v>0.274645400377734</v>
+        <v>0.7196603919224289</v>
       </c>
       <c r="J4">
-        <v>0.274645400377734</v>
+        <v>0.719660391922429</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>25.883487862168</v>
+        <v>4.786517</v>
       </c>
       <c r="N4">
-        <v>25.883487862168</v>
+        <v>14.359551</v>
       </c>
       <c r="O4">
-        <v>0.8449145235622756</v>
+        <v>0.1554143619309319</v>
       </c>
       <c r="P4">
-        <v>0.8449145235622756</v>
+        <v>0.1554143619309319</v>
       </c>
       <c r="Q4">
-        <v>19.7886192688704</v>
+        <v>9.999303653457666</v>
       </c>
       <c r="R4">
-        <v>19.7886192688704</v>
+        <v>89.993732881119</v>
       </c>
       <c r="S4">
-        <v>0.2320518876087235</v>
+        <v>0.1118455606175886</v>
       </c>
       <c r="T4">
-        <v>0.2320518876087235</v>
+        <v>0.1118455606175887</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,55 +711,179 @@
         <v>23</v>
       </c>
       <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0.8137799999999999</v>
+      </c>
+      <c r="H5">
+        <v>2.44134</v>
+      </c>
+      <c r="I5">
+        <v>0.280339608077571</v>
+      </c>
+      <c r="J5">
+        <v>0.280339608077571</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M5">
+        <v>0.06547366666666667</v>
+      </c>
+      <c r="N5">
+        <v>0.196421</v>
+      </c>
+      <c r="O5">
+        <v>0.002125877360986814</v>
+      </c>
+      <c r="P5">
+        <v>0.002125877360986814</v>
+      </c>
+      <c r="Q5">
+        <v>0.05328116046</v>
+      </c>
+      <c r="R5">
+        <v>0.47953044414</v>
+      </c>
+      <c r="S5">
+        <v>0.0005959676262000244</v>
+      </c>
+      <c r="T5">
+        <v>0.0005959676262000244</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
         <v>21</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>0.764526766031172</v>
-      </c>
-      <c r="H5">
-        <v>0.764526766031172</v>
-      </c>
-      <c r="I5">
-        <v>0.274645400377734</v>
-      </c>
-      <c r="J5">
-        <v>0.274645400377734</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>4.75095756438197</v>
-      </c>
-      <c r="N5">
-        <v>4.75095756438197</v>
-      </c>
-      <c r="O5">
-        <v>0.1550854764377244</v>
-      </c>
-      <c r="P5">
-        <v>0.1550854764377244</v>
-      </c>
-      <c r="Q5">
-        <v>3.632234222248281</v>
-      </c>
-      <c r="R5">
-        <v>3.632234222248281</v>
-      </c>
-      <c r="S5">
-        <v>0.04259351276901045</v>
-      </c>
-      <c r="T5">
-        <v>0.04259351276901045</v>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0.8137799999999999</v>
+      </c>
+      <c r="H6">
+        <v>2.44134</v>
+      </c>
+      <c r="I6">
+        <v>0.280339608077571</v>
+      </c>
+      <c r="J6">
+        <v>0.280339608077571</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>25.94643066666667</v>
+      </c>
+      <c r="N6">
+        <v>77.839292</v>
+      </c>
+      <c r="O6">
+        <v>0.8424597607080814</v>
+      </c>
+      <c r="P6">
+        <v>0.8424597607080814</v>
+      </c>
+      <c r="Q6">
+        <v>21.11468634792</v>
+      </c>
+      <c r="R6">
+        <v>190.03217713128</v>
+      </c>
+      <c r="S6">
+        <v>0.2361748391380278</v>
+      </c>
+      <c r="T6">
+        <v>0.2361748391380278</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.8137799999999999</v>
+      </c>
+      <c r="H7">
+        <v>2.44134</v>
+      </c>
+      <c r="I7">
+        <v>0.280339608077571</v>
+      </c>
+      <c r="J7">
+        <v>0.280339608077571</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>4.786517</v>
+      </c>
+      <c r="N7">
+        <v>14.359551</v>
+      </c>
+      <c r="O7">
+        <v>0.1554143619309319</v>
+      </c>
+      <c r="P7">
+        <v>0.1554143619309319</v>
+      </c>
+      <c r="Q7">
+        <v>3.89517180426</v>
+      </c>
+      <c r="R7">
+        <v>35.05654623834</v>
+      </c>
+      <c r="S7">
+        <v>0.04356880131334321</v>
+      </c>
+      <c r="T7">
+        <v>0.04356880131334321</v>
       </c>
     </row>
   </sheetData>
